--- a/聖經 啟示錄&但以理書線索整理(Feb,4,2021).xlsx
+++ b/聖經 啟示錄&但以理書線索整理(Feb,4,2021).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="176">
   <si>
     <t>七印</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大能天使降下(披著雲彩，頭上有虹, 面如日頭腳像火柱), 拿著展開的小書卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不再耽延了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>馬太24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rev 12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>龍轉向 神的子女爭戰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rev 13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +292,6 @@
   </si>
   <si>
     <t>天上寂靜半小時, 上帝面前的七個天使有七號賜給他們, 一天使拿著盛滿壇上的火倒在地上，就有雷轟閃電地震</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I Cor 15:51~53 末次號筒吹響</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -409,10 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果假設：一個災禍Woe對應一個天使吹號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -456,100 +436,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Rev 14:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 14:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外邦發怒, 主的憤怒臨到, 死人受審判的時間到了, 僕人以及眾先知聖徒得賞賜的時候到了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又有一位天使, 有永遠的福音要傳給過國各族各方各民, 他施行審判的時候到了 (是否呼應 Rev 11:15~19 外邦發怒, 主怒臨到, 死人受審判時間到, 聖民得賞賜時間到了?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 14:9~11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又有第三個天使說 敬拜獸和獸像者在手裡或額裡受他的印記者必喝 上帝大怒的酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 14:12~18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐮刀收割的時候到了, 真基督徒(莊稼)收割（被提） , 假基督徒(葡萄)被丟在大怒的酒中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">當時， </t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>我又觀看,</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上帝的殿在天上打開 (發生在聖徒被提之後, 聖徒暫時站在玻璃海上等候 神)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>, 殿出現約櫃, 有閃電聲音轟雷地震大雹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">又看見一天使, 從東方上來, 拿 上帝的印, 吩咐四天使 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <u/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> 14萬4千沒有過失的人(呼應以色列支派受印之14萬4千人)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>做初熟的果子 無謊言</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 14:6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 14:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外邦發怒, 主的憤怒臨到, 死人受審判的時間到了, 僕人以及眾先知聖徒得賞賜的時候到了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又有一位天使, 有永遠的福音要傳給過國各族各方各民, 他施行審判的時候到了 (是否呼應 Rev 11:15~19 外邦發怒, 主怒臨到, 死人受審判時間到, 聖民得賞賜時間到了?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 14:9~11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又有第三個天使說 敬拜獸和獸像者在手裡或額裡受他的印記者必喝 上帝大怒的酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 14:12~18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐮刀收割的時候到了, 真基督徒(莊稼)收割（被提） , 假基督徒(葡萄)被丟在大怒的酒中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">當時， </t>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地與海並樹木</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上帝的殿在天上打開 (發生在聖徒被提之後, 聖徒暫時站在玻璃海上等候 神)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>, 殿出現約櫃, 有閃電聲音轟雷地震大雹</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">又看見一天使, 從東方上來, 拿 上帝的印, 吩咐四天使 </t>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不可傷害, 直至 上帝僕人的額受聖印</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>無底坑蝗蟲出來,</t>
     </r>
     <r>
       <rPr>
@@ -560,140 +533,538 @@
         <rFont val="宋體-繁 標準體"/>
         <charset val="136"/>
       </rPr>
-      <t>地與海並樹木</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>青草樹木</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="宋體-繁 標準體"/>
         <charset val="136"/>
       </rPr>
-      <t>不可傷害, 直至 上帝僕人的額受聖印</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>無底坑蝗蟲出來,</t>
+      <t>不不可傷害，唯獨傷害頭上沒有 神印記的人  (可能呼應第六印, 聖民已受 神印記,要看見不信者被蝗蟲攻擊)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 15:1~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 15:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在天上那作證的帳幕的殿打開了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">天有異象, 掌管七災的天使, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>玻璃海上有勝過獸以及獸像者</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 15:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒人能進殿直至七個天使所降的七災完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 16:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聽間聲音吩咐七天使把盛滿 上帝大怒的瓶倒在地上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 16:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有惡且毒的瘡生在拜獸印者身上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 16:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海變成如死人的血,海中活物都死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 16:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眾水的泉源以及江河, 水變成血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 16:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日頭用火烤人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 16:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獸的國變成黑暗, 人因疼痛所生的瘡咬自己的舌, 依然褻瀆 神而不悔改所行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 16:12~16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼發拉底河乾枯, 預備道路給東方的眾王, 哈米吉多頓大戰(Armageddon)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>轟雷閃電大地震,自古以來從未有如此大的地震，</t>
     </r>
     <r>
       <rPr>
         <b/>
         <u/>
         <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>青草樹木</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不不可傷害，唯獨傷害頭上沒有 神印記的人  (可能呼應第六印, 聖民已受 神印記,要看見不信者被蝗蟲攻擊)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 15:1~2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 15:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在天上那作證的帳幕的殿打開了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">天有異象, 掌管七災的天使, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>玻璃海上有勝過獸以及獸像者</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 15:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沒人能進殿直至七個天使所降的七災完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 16:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聽間聲音吩咐七天使把盛滿 上帝大怒的瓶倒在地上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 16:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有惡且毒的瘡生在拜獸印者身上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 16:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海變成如死人的血,海中活物都死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 16:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眾水的泉源以及江河, 水變成血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 16:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日頭用火烤人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 16:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>獸的國變成黑暗, 人因疼痛所生的瘡咬自己的舌, 依然褻瀆 神而不悔改所行的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 16:12~16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幼發拉底河乾枯, 預備道路給東方的眾王, 哈米吉多頓大戰(Armageddon)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>轟雷閃電大地震,自古以來從未有如此大的地震，</t>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>那大城(獸的國)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>裂為三段, 列國的城也都倒塌, 上帝也想起來要把烈怒的酒遞給巴比倫大城(淫婦)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 16:17~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又有大雹砸到地上, 人因這樣的災禍繼續褻瀆 神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">假先知 &amp; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵基督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女人穿著紫色和朱紅色的衣服(羅馬天主教系統以及Jesuit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>接著又有一位天使說</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 傾倒了 巴比倫大城傾倒了因她叫列國喝邪淫大怒之酒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓吹世界大一統宗教, 最後將引領世人跟從獸也就是魔鬼撒旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 17:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 17:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明大淫婦(巴比倫:羅馬天主教系統)的下場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>註：淫婦比喻為背叛 上帝的教會, 新婦則是尋求 神, 真正的基督徒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做完見證時(1260天之後)無底坑上來的獸與他們交戰並得勝, 過三天半復活升天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梵蒂岡以及羅馬天主教系統是當今充滿金碧輝煌雕像,建築物以及各種可憎之偶像的宗教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外邦不信之民將踐踏聖城四十二個月(1260日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一七之內與許多人立約, come as peacemaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末七之內</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地大震動, 日頭變黑, 血月, 星辰落地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>, 如無花果落未熟的果子, 天逝離, 山嶺海島挪移本地, 地上所有人藏匿洞穴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>七頭十角的大紅龍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">摔到地上(地與海開始有禍) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>標色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前3.5年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後3.5年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一載二載半載</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四十二個月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1260日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>獸從海中上來</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">(但以理第四獸：ＥＵ), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>七頭十角</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>角上有冠冕, 七頭有褻瀆名, 龍給了他權柄</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二獸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一獸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>騎在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>獸上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梵蒂岡（啟示錄大淫婦巴比倫）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>女人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>騎在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>朱紅色的獸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">上, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>獸有七頭十角</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>, 遍體有褻瀆之名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智慧的心在此可以思想。那七頭就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>女人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>所坐的七座山 (梵蒂岡就是七丘之城 The city of seven hills)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你所看見那</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>獸上的十角</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>必恨這</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>淫婦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，使她冷落赤身，又要吃她的肉，用火燒她。最後敵基督獸的國與假先知會起內鬨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>又有一獸從地出來,頭上兩角說話像龍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> (USA: 手按聖經宣誓，如但以理公綿羊(兩角代表波斯與瑪代 &lt;--&gt; USA&amp;UK)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獸像、除掉祭祀 --&gt; 必有1290日 （Danniel 12:12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>等到1335日的那人必為</t>
     </r>
     <r>
       <rPr>
@@ -704,106 +1075,248 @@
         <rFont val="宋體-繁 標準體"/>
         <charset val="136"/>
       </rPr>
-      <t>那大城(獸的國)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>裂為三段, 列國的城也都倒塌, 上帝也想起來要把烈怒的酒遞給巴比倫大城(淫婦)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 16:17~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又有大雹砸到地上, 人因這樣的災禍繼續褻瀆 神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">假先知 &amp; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敵基督</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女人穿著紫色和朱紅色的衣服(羅馬天主教系統以及Jesuit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>接著又有一位天使說</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> 傾倒了 巴比倫大城傾倒了因她叫列國喝邪淫大怒之酒</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼓吹世界大一統宗教, 最後將引領世人跟從獸也就是魔鬼撒旦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 17:9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 17:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev 18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明大淫婦(巴比倫:羅馬天主教系統)的下場</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>註：淫婦比喻為背叛 上帝的教會, 新婦則是尋求 神, 真正的基督徒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做完見證時(1260天之後)無底坑上來的獸與他們交戰並得勝, 過三天半復活升天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梵蒂岡以及羅馬天主教系統是當今充滿金碧輝煌雕像,建築物以及各種可憎之偶像的宗教</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外邦不信之民將踐踏聖城四十二個月(1260日）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一七之內與許多人立約, come as peacemaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>末七之內</t>
+      <t>有福</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能1. 聖所潔淨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能2. 教會被提 (則1335日是指前三年半1260日+75日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考DK講解的部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(假設：一載二載半載 為前3.5年  42個月為後3.5年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>權柄賜給兩個見證人(如同摩西、以利亞)發預言1260天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>, 可隨時用災禍攻擊世界</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若為1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1260 (一載二載半載）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1260 (42個月)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1335日 （1260+30+45) 這45天何解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若為2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1335日 (1260 + 75)  獸印推行後是否有75日要忍耐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Woe1 (禍哉1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Woe2 (禍哉2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回推2300日，為聖所開始獻祭日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>男孩子(鐵杖管轄者)「被提到神寶座」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 龍轉向 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>婦人的子女（守 神誡命為耶穌做見證的基督徒）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>爭戰</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖拉星辰的三分之一, 身披日頭腳踏月亮頭戴12星冠冕婦人逃到 上帝安排的曠野養活1260天, 大鷹賜給婦人養活一載二載半載(教會存續 前3.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬太24 （那些日子的災難過去：日頭變黑月亮不放光眾星墜落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能 2. 受聖靈印記者（根據經文只有提到以色列支派）不被攻擊，沒神印記者被攻擊。(則被提是否是在第七號：奧秘成全、末次號筒(Trump of God)吹響）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能 1. 一般的基督徒已經被提 (第四號已發生第五號之前）地上的人都是沒聖靈印記者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問題2：神的奧祕是否就意味著教會被提去、福音與聖靈的感動不在地上anymore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I Cor 15:51~53 末次號筒吹響 （基督中死去的人復活，在災難中活著的人也一起見 主）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>此後，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一大群人，各國、各民、各方來的(被提者？）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>身穿白衣站在 神寶座前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>（註： 神寶座前有玻璃海）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假設：一個災禍Woe對應第五天使吹號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">七災(盛滿大怒的瓶)： </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>第三禍哉(Woe 3)就是末世七大災發生在第七號之後</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未被殺者不悔改仍拜偶像兇殺偷竊姦淫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">大能天使降下(披著雲彩，頭上有虹, 面如日頭腳像火柱), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>拿著展開的小書卷</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（那時耶穌兆頭顯在天上，差使者用號筒的大聲將四方的民召回來</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（七號為第七印的內容： 1~4號為環境災害，5~7號對人的災害，其中第7號是包含神大怒的七碗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能1：問題2，林前15:50~的末次號筒以及奧秘如何解釋為不是七號吹響時奧秘的成全？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -846,7 +1359,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>, 打破聖民權力(獸像)時,</t>
+      <t>, 打破聖民權力(被強迫拜獸像)時,</t>
     </r>
     <r>
       <rPr>
@@ -880,325 +1393,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地大震動, 日頭變黑, 血月, 星辰落地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>, 如無花果落未熟的果子, 天逝離, 山嶺海島挪移本地, 地上所有人藏匿洞穴</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>七頭十角的大紅龍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">摔到地上(地與海開始有禍) </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/9/23拖拉星辰的三分之一, 身披日頭腳踏月亮頭戴12星冠冕婦人逃到 上帝安排的曠野養活1260天, 大鷹賜給婦人養活一載二載半載(前3.5)</t>
-  </si>
-  <si>
-    <t>標色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前3.5年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>後3.5年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一載二載半載</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四十二個月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1260日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>獸從海中上來</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">(但以理第四獸：ＥＵ), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>七頭十角</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>角上有冠冕, 七頭有褻瀆名, 龍給了他權柄</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二獸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一獸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>騎在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>獸上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>的就是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梵蒂岡（啟示錄大淫婦巴比倫）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>女人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>騎在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>朱紅色的獸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">上, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>獸有七頭十角</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>, 遍體有褻瀆之名</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>智慧的心在此可以思想。那七頭就是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>女人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>所坐的七座山 (梵蒂岡就是七丘之城 The city of seven hills)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你所看見那</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>獸上的十角</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>必恨這</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>淫婦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，使她冷落赤身，又要吃她的肉，用火燒她。最後敵基督獸的國與假先知會起內鬨</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>又有一獸從地出來,頭上兩角說話像龍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> (USA: 手按聖經宣誓，如但以理公綿羊(兩角代表波斯與瑪代 &lt;--&gt; USA&amp;UK)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此後，一大群人，各國、各民、各方來的(被提者？）身穿白衣站在 神寶座前 (永生)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>獸像、除掉祭祀 --&gt; 必有1290日 （Danniel 12:12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>等到1335日的那人必為</t>
+    <t>以上假設需要回答以下對應問題：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能2：問題1，等於第五號「蝗蟲」發生時，基督徒仍在地上，但根據經文又只有14萬4千隻以色列支派受聖印，該如何解釋？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（問題1：此處對於“一般基督徒：非經文提到的14萬4千童身受聖印記的人”，是否還在地上？又或者也是有聖印）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我又觀看,</t>
     </r>
     <r>
       <rPr>
@@ -1209,27 +1424,79 @@
         <rFont val="宋體-繁 標準體"/>
         <charset val="136"/>
       </rPr>
-      <t>有福</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能1. 聖所潔淨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能2. 教會被提 (則1335日是指前三年半1260日+75日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>參考DK講解的部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(假設：一載二載半載 為前3.5年  42個月為後3.5年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> 14萬4千童身的人(呼應以色列支派受印之14萬4千人)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>做初熟的果子 無謊言</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>假設：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>第六印</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>對應</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">  第四號 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以及</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1237,138 +1504,8 @@
         <rFont val="宋體-繁 標準體"/>
         <charset val="136"/>
       </rPr>
-      <t>權柄賜給兩個見證人(如同摩西、以利亞)發預言1260天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>, 可隨時用災禍攻擊世界</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若為1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1260 (一載二載半載）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1260 (42個月)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1335日 （1260+30+45) 這45天何解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若為2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1335日 (1260 + 75)  獸印推行後是否有75日要忍耐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>第六印</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是否對應</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  第四號 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋體-繁 標準體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="宋體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
       <t>第五號</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Woe1 (禍哉1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Woe2 (禍哉2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能 1. 基督徒已經被提 (第四號已發生第五號之前）地上的人都是沒聖靈印記者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能 2. 基督徒不被攻擊，沒神印記者被攻擊。(則被提是否是在第七號：奧秘成全、末次號筒(Trump of God)吹響）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神的奧祕是否就意味著教會被提去、福音與聖靈的感動不在地上anymore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七災(盛滿大怒的瓶)： 第三禍哉(Woe 3)就是末世七大災發生在第七號之後</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回推2300日，為聖所開始獻祭日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1564,7 +1701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1576,21 +1713,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1875,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -1901,83 +2040,83 @@
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="K3" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>161</v>
+        <v>142</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="P6" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -1985,7 +2124,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
@@ -1998,6 +2140,9 @@
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="W8" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -2009,18 +2154,18 @@
       <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="13" t="s">
-        <v>157</v>
+      <c r="O9" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
@@ -2034,15 +2179,15 @@
         <v>6</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
+        <v>145</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
@@ -2063,14 +2208,14 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
+        <v>150</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
@@ -2091,7 +2236,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="P12" s="17" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
@@ -2107,7 +2252,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2116,8 +2261,8 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
-        <v>45</v>
+      <c r="M13" s="18" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
@@ -2135,13 +2280,16 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
+      <c r="M14" s="13" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2157,7 +2305,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2168,43 +2316,43 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="N16" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="D17" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="N17" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="N18" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
@@ -2215,21 +2363,21 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="N20" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -2242,6 +2390,9 @@
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C21" s="19" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
@@ -2284,19 +2435,19 @@
         <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="AA25" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
@@ -2304,16 +2455,16 @@
         <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AA26" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
@@ -2327,18 +2478,18 @@
         <v>28</v>
       </c>
       <c r="M27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA27" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2347,112 +2498,122 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="AA28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D29" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="AA29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="AA30" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA32" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="AA29" s="1" t="s">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA33" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="AA30" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z31" s="1" t="s">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA34" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AA31" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA32" s="9" t="s">
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA35" s="9" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA33" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="M34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA34" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="M35" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA35" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="M36" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AA36" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="M37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -2463,7 +2624,7 @@
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="AA37" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.3">
@@ -2474,21 +2635,21 @@
         <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.3">
       <c r="D40" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
@@ -2499,19 +2660,19 @@
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.3">
       <c r="D41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -2519,8 +2680,14 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
@@ -2532,54 +2699,66 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.3">
       <c r="D44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="D45" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="D45" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -2587,10 +2766,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -2598,10 +2777,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -2609,10 +2788,10 @@
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -2620,10 +2799,10 @@
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -2631,10 +2810,10 @@
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -2642,10 +2821,10 @@
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -2653,77 +2832,77 @@
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D65" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D66" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D67" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
